--- a/Upload_bot_files/master.xlsx
+++ b/Upload_bot_files/master.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sripa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Intelgic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBBC17D-6829-47BC-9E7B-5FAAEAC08B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D8AA0E-8602-4906-BE76-D2A6D6781A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7CF025ED-8703-4A98-B3C8-4FF7B48863CB}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>image/gif</t>
   </si>
   <si>
-    <t>C:\Users\sripa\Desktop</t>
-  </si>
-  <si>
     <t>Wow-gif.gif</t>
   </si>
   <si>
@@ -139,13 +136,16 @@
   </si>
   <si>
     <t>file</t>
+  </si>
+  <si>
+    <t>C:\Users\sripa\Desktop\Upload</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +153,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,8 +188,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,62 +508,63 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" customWidth="1"/>
+    <col min="1" max="1" width="42.1796875" customWidth="1"/>
     <col min="2" max="2" width="43.54296875" customWidth="1"/>
     <col min="3" max="3" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>32</v>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -564,95 +580,95 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -660,18 +676,18 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Upload_bot_files/master.xlsx
+++ b/Upload_bot_files/master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Intelgic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sripa\Documents\Intelgic\My Scripts\OneDrive\Intelgic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D8AA0E-8602-4906-BE76-D2A6D6781A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7E37E3-FBAD-45C3-BAD0-F98759A47A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7CF025ED-8703-4A98-B3C8-4FF7B48863CB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{7CF025ED-8703-4A98-B3C8-4FF7B48863CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -48,9 +40,6 @@
     <t>Wow-gif.gif</t>
   </si>
   <si>
-    <t>Invoice_Template_DemoProject.docx</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -138,7 +127,91 @@
     <t>file</t>
   </si>
   <si>
-    <t>C:\Users\sripa\Desktop\Upload</t>
+    <t>test_word.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\Intelgic\Desktop\Upload</t>
+  </si>
+  <si>
+    <t>.docx</t>
+  </si>
+  <si>
+    <t>application/vnd.openxmlformats-officedocument.wordprocessingml.document</t>
+  </si>
+  <si>
+    <t>.doc</t>
+  </si>
+  <si>
+    <t>application/msword</t>
+  </si>
+  <si>
+    <t>.mp3</t>
+  </si>
+  <si>
+    <t>audio/mpeg</t>
+  </si>
+  <si>
+    <t>.mp4</t>
+  </si>
+  <si>
+    <t>video/mp4</t>
+  </si>
+  <si>
+    <t>.mpeg4</t>
+  </si>
+  <si>
+    <t>application/mp</t>
+  </si>
+  <si>
+    <t>application/zip</t>
+  </si>
+  <si>
+    <t>application/rar</t>
+  </si>
+  <si>
+    <t>application/tar</t>
+  </si>
+  <si>
+    <t>application/arj</t>
+  </si>
+  <si>
+    <t>application/cab</t>
+  </si>
+  <si>
+    <t>text/html</t>
+  </si>
+  <si>
+    <t>text/js</t>
+  </si>
+  <si>
+    <t>application/x-shockwave-flash</t>
+  </si>
+  <si>
+    <t>.js</t>
+  </si>
+  <si>
+    <t>.swf</t>
+  </si>
+  <si>
+    <t>.htm</t>
+  </si>
+  <si>
+    <t>.html</t>
+  </si>
+  <si>
+    <t>.cab</t>
+  </si>
+  <si>
+    <t>.arj</t>
+  </si>
+  <si>
+    <t>.tar</t>
+  </si>
+  <si>
+    <t>.rar</t>
+  </si>
+  <si>
+    <t>.zip</t>
   </si>
 </sst>
 </file>
@@ -497,7 +570,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -507,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A457444F-1359-45EE-BAA7-009E27FAD360}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -526,18 +599,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -548,18 +621,18 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -570,105 +643,105 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EE35FB-BDF2-4FAC-A201-3DCBC17AFF52}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -676,18 +749,130 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
